--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>184918000</v>
+        <v>207418000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>272930000</v>
+        <v>295430000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>227730000</v>
+        <v>246730000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>45200000</v>
+        <v>48700000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>263530000</v>
+        <v>282530000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-28T16:31:00.000Z</t>
+    <t>2024-07-31T18:24:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-07-31T18:25:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -853,100 +856,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -969,100 +972,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1085,115 +1088,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1207,7 +1210,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1216,115 +1219,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1347,115 +1350,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1478,100 +1481,100 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1585,7 +1588,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1594,115 +1597,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1725,100 +1728,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1841,100 +1844,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1957,100 +1960,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2073,115 +2076,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2195,7 +2198,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2204,115 +2207,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13">
-        <v>88012000</v>
+        <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13">
-        <v>213618000</v>
+        <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13">
-        <v>301630000</v>
+        <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13">
-        <v>252930000</v>
+        <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN13">
-        <v>48700000</v>
+        <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ13">
-        <v>288730000</v>
+        <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-31T18:24:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-07-31T18:25:00.000Z</t>
+    <t>2024-08-03T03:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -856,100 +853,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
       <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>81</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
         <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -972,100 +969,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
       <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>74</v>
       </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
       <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>81</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>89</v>
-      </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1088,115 +1085,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1210,7 +1207,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1219,115 +1216,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
-        <v>79</v>
-      </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1350,115 +1347,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1472,7 +1469,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1481,100 +1478,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>75</v>
       </c>
       <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
-        <v>79</v>
-      </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>81</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7">
+        <v>7363000</v>
+      </c>
+      <c r="X7" t="s">
         <v>82</v>
       </c>
-      <c r="V7" t="s">
-        <v>81</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7">
+        <v>737000</v>
+      </c>
+      <c r="AB7" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7">
+        <v>8100000</v>
+      </c>
+      <c r="AF7" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7">
+        <v>8100000</v>
+      </c>
+      <c r="AI7" t="s">
         <v>85</v>
       </c>
-      <c r="AG7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7" t="s">
         <v>86</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ7">
+        <v>8100000</v>
+      </c>
+      <c r="AR7" t="s">
         <v>88</v>
       </c>
-      <c r="AP7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>89</v>
-      </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1588,7 +1600,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1597,115 +1609,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>77</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1728,100 +1740,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
       <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
       <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>81</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>83</v>
       </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s">
         <v>85</v>
       </c>
-      <c r="AG9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AP9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>89</v>
-      </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1844,100 +1856,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
       <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
       <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>81</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s">
         <v>85</v>
       </c>
-      <c r="AG10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL10" t="s">
         <v>86</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO10" t="s">
         <v>87</v>
       </c>
-      <c r="AM10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AP10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>89</v>
-      </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1960,100 +1972,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
       <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
       <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>81</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="V11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s">
         <v>85</v>
       </c>
-      <c r="AG11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO11" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR11" t="s">
         <v>88</v>
       </c>
-      <c r="AP11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>89</v>
-      </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2076,115 +2088,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2198,7 +2210,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2207,115 +2219,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:17:00.000Z</t>
+    <t>2024-08-03T03:28:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:29:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -853,100 +856,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -969,100 +972,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1085,115 +1088,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1207,7 +1210,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1216,115 +1219,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1347,115 +1350,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1469,7 +1472,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1478,115 +1481,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7">
         <v>7363000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7">
         <v>737000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7">
         <v>8100000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7">
         <v>8100000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ7">
         <v>8100000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1600,7 +1603,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1609,115 +1612,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1740,100 +1743,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1856,100 +1859,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1972,100 +1975,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2079,7 +2082,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2088,115 +2091,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2210,7 +2213,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2219,115 +2222,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:28:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:29:00.000Z</t>
+    <t>2024-08-03T03:54:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -856,100 +853,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
       <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>81</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
         <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -972,100 +969,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
       <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>74</v>
       </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
       <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>81</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>89</v>
-      </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1088,115 +1085,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1210,7 +1207,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1219,115 +1216,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
-        <v>79</v>
-      </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1350,115 +1347,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1472,7 +1469,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1481,115 +1478,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
-        <v>79</v>
-      </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>81</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>82</v>
-      </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7">
         <v>7363000</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA7">
         <v>737000</v>
       </c>
       <c r="AB7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE7">
         <v>8100000</v>
       </c>
       <c r="AF7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7">
         <v>8100000</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>88</v>
-      </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ7">
         <v>8100000</v>
       </c>
       <c r="AR7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1603,7 +1600,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1612,115 +1609,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>77</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1743,100 +1740,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
       <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
       <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>81</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>83</v>
       </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s">
         <v>85</v>
       </c>
-      <c r="AG9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AP9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>89</v>
-      </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1859,100 +1856,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
       <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
       <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>81</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s">
         <v>85</v>
       </c>
-      <c r="AG10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL10" t="s">
         <v>86</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO10" t="s">
         <v>87</v>
       </c>
-      <c r="AM10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AP10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>89</v>
-      </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1975,100 +1972,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
       <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
       <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>81</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="V11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s">
         <v>85</v>
       </c>
-      <c r="AG11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO11" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR11" t="s">
         <v>88</v>
       </c>
-      <c r="AP11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>89</v>
-      </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2082,7 +2079,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2091,115 +2088,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2213,7 +2210,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2222,115 +2219,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:54:00.000Z</t>
+    <t>2024-08-03T20:14:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1517,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="W7">
-        <v>7363000</v>
+        <v>10593000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>
@@ -1529,7 +1529,7 @@
         <v>80</v>
       </c>
       <c r="AA7">
-        <v>737000</v>
+        <v>49507000</v>
       </c>
       <c r="AB7" t="s">
         <v>83</v>
@@ -1541,7 +1541,7 @@
         <v>80</v>
       </c>
       <c r="AE7">
-        <v>8100000</v>
+        <v>60100000</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
@@ -1550,7 +1550,7 @@
         <v>80</v>
       </c>
       <c r="AH7">
-        <v>8100000</v>
+        <v>45100000</v>
       </c>
       <c r="AI7" t="s">
         <v>85</v>
@@ -1559,7 +1559,7 @@
         <v>80</v>
       </c>
       <c r="AK7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="s">
         <v>86</v>
@@ -1568,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AO7" t="s">
         <v>87</v>
@@ -1577,7 +1577,7 @@
         <v>80</v>
       </c>
       <c r="AQ7">
-        <v>8100000</v>
+        <v>45100000</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T20:14:00.000Z</t>
+    <t>2024-08-03T21:27:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:27:00.000Z</t>
+    <t>2024-08-09T19:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1508,7 +1508,7 @@
         <v>80</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="U7" t="s">
         <v>81</v>
@@ -1517,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="W7">
-        <v>10593000</v>
+        <v>42243000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>
@@ -1529,7 +1529,7 @@
         <v>80</v>
       </c>
       <c r="AA7">
-        <v>49507000</v>
+        <v>44507000</v>
       </c>
       <c r="AB7" t="s">
         <v>83</v>
@@ -1541,7 +1541,7 @@
         <v>80</v>
       </c>
       <c r="AE7">
-        <v>60100000</v>
+        <v>86750000</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
@@ -1550,7 +1550,7 @@
         <v>80</v>
       </c>
       <c r="AH7">
-        <v>45100000</v>
+        <v>68250000</v>
       </c>
       <c r="AI7" t="s">
         <v>85</v>
@@ -1559,7 +1559,7 @@
         <v>80</v>
       </c>
       <c r="AK7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="s">
         <v>86</v>
@@ -1568,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="AN7">
-        <v>15000000</v>
+        <v>18500000</v>
       </c>
       <c r="AO7" t="s">
         <v>87</v>
@@ -1577,7 +1577,7 @@
         <v>80</v>
       </c>
       <c r="AQ7">
-        <v>45100000</v>
+        <v>78250000</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-09T19:28:00.000Z</t>
+    <t>2024-08-12T02:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1517,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="W7">
-        <v>42243000</v>
+        <v>48813000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>
@@ -1529,7 +1529,7 @@
         <v>80</v>
       </c>
       <c r="AA7">
-        <v>44507000</v>
+        <v>45937000</v>
       </c>
       <c r="AB7" t="s">
         <v>83</v>
@@ -1541,7 +1541,7 @@
         <v>80</v>
       </c>
       <c r="AE7">
-        <v>86750000</v>
+        <v>94750000</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
@@ -1550,7 +1550,7 @@
         <v>80</v>
       </c>
       <c r="AH7">
-        <v>68250000</v>
+        <v>75250000</v>
       </c>
       <c r="AI7" t="s">
         <v>85</v>
@@ -1559,7 +1559,7 @@
         <v>80</v>
       </c>
       <c r="AK7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="s">
         <v>86</v>
@@ -1568,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="AN7">
-        <v>18500000</v>
+        <v>19500000</v>
       </c>
       <c r="AO7" t="s">
         <v>87</v>
@@ -1577,7 +1577,7 @@
         <v>80</v>
       </c>
       <c r="AQ7">
-        <v>78250000</v>
+        <v>85250000</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-12T02:00:00.000Z</t>
+    <t>2024-08-23T13:32:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -233,6 +233,42 @@
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-7-fdacbeb096234ba39b170f195a7be0ea</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-1-7b907bcde05a445fada852be8ebd5fd0</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-3-8cbb3a0332f844d492cfc3ef71fcb757</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-5-983972f26cc848158b70fc849d9eaa02</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-2-a1bdd368a4ad4ef08b3a1c090b554216</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-8-253ead768f0d42aa9a981b46e6493df8</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-6-73f11cf8a6304caa8e117ed5a5c0bfa2</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-12-860595efc0c741c09597cff9f51541cd</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-9-ac6ac0c37f4741adb8a57af6470c2f15</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-10-ced1060e34cf42e2bfe280898ab5511f</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-4-e2413053981b4dfdb00391607b1fc96c</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-7-fdacbeb096234ba39b170f195a7be0ea</t>
   </si>
   <si>
     <t>user</t>
@@ -855,98 +891,101 @@
       <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -971,98 +1010,101 @@
       <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1087,113 +1129,116 @@
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1218,113 +1263,116 @@
       <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1349,113 +1397,116 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1480,113 +1531,116 @@
       <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T7">
-        <v>10000000</v>
+        <v>29000000</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W7">
-        <v>48813000</v>
+        <v>93345000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA7">
-        <v>45937000</v>
+        <v>77705000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE7">
-        <v>94750000</v>
+        <v>171050000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH7">
-        <v>75250000</v>
+        <v>124050000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN7">
-        <v>19500000</v>
+        <v>47000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ7">
-        <v>85250000</v>
+        <v>153050000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1611,113 +1665,116 @@
       <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1742,98 +1799,101 @@
       <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1858,98 +1918,101 @@
       <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1974,98 +2037,101 @@
       <c r="I11" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2090,113 +2156,116 @@
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2221,129 +2290,144 @@
       <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-23T13:32:00.000Z</t>
+    <t>2024-08-24T20:33:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1562,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="T7">
-        <v>29000000</v>
+        <v>27500000</v>
       </c>
       <c r="U7" t="s">
         <v>93</v>
@@ -1571,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="W7">
-        <v>93345000</v>
+        <v>94205000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1583,7 +1583,7 @@
         <v>92</v>
       </c>
       <c r="AA7">
-        <v>77705000</v>
+        <v>84045000</v>
       </c>
       <c r="AB7" t="s">
         <v>95</v>
@@ -1595,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="AE7">
-        <v>171050000</v>
+        <v>178250000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1604,7 +1604,7 @@
         <v>92</v>
       </c>
       <c r="AH7">
-        <v>124050000</v>
+        <v>129250000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1613,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="AK7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1622,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="AN7">
-        <v>47000000</v>
+        <v>49000000</v>
       </c>
       <c r="AO7" t="s">
         <v>99</v>
@@ -1631,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="AQ7">
-        <v>153050000</v>
+        <v>156750000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-24T20:33:00.000Z</t>
+    <t>2024-08-26T17:26:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1562,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="T7">
-        <v>27500000</v>
+        <v>35500000</v>
       </c>
       <c r="U7" t="s">
         <v>93</v>
@@ -1571,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="W7">
-        <v>94205000</v>
+        <v>99810000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1583,7 +1583,7 @@
         <v>92</v>
       </c>
       <c r="AA7">
-        <v>84045000</v>
+        <v>115040000</v>
       </c>
       <c r="AB7" t="s">
         <v>95</v>
@@ -1595,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="AE7">
-        <v>178250000</v>
+        <v>214850000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1604,7 +1604,7 @@
         <v>92</v>
       </c>
       <c r="AH7">
-        <v>129250000</v>
+        <v>164850000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1613,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="AK7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1622,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="AN7">
-        <v>49000000</v>
+        <v>50000000</v>
       </c>
       <c r="AO7" t="s">
         <v>99</v>
@@ -1631,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="AQ7">
-        <v>156750000</v>
+        <v>200350000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-26T17:26:00.000Z</t>
+    <t>2024-08-27T12:18:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-27T12:18:00.000Z</t>
+    <t>2024-08-28T15:04:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1562,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="T7">
-        <v>35500000</v>
+        <v>37000000</v>
       </c>
       <c r="U7" t="s">
         <v>93</v>
@@ -1571,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="W7">
-        <v>99810000</v>
+        <v>101470000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1583,7 +1583,7 @@
         <v>92</v>
       </c>
       <c r="AA7">
-        <v>115040000</v>
+        <v>164380000</v>
       </c>
       <c r="AB7" t="s">
         <v>95</v>
@@ -1595,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="AE7">
-        <v>214850000</v>
+        <v>265850000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1604,7 +1604,7 @@
         <v>92</v>
       </c>
       <c r="AH7">
-        <v>164850000</v>
+        <v>215850000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1613,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="AK7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1631,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="AQ7">
-        <v>200350000</v>
+        <v>252850000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-28T15:04:00.000Z</t>
+    <t>2024-08-30T20:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -1571,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="W7">
-        <v>101470000</v>
+        <v>111740000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1583,7 +1583,7 @@
         <v>92</v>
       </c>
       <c r="AA7">
-        <v>164380000</v>
+        <v>201460000</v>
       </c>
       <c r="AB7" t="s">
         <v>95</v>
@@ -1595,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="AE7">
-        <v>265850000</v>
+        <v>313200000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1604,7 +1604,7 @@
         <v>92</v>
       </c>
       <c r="AH7">
-        <v>215850000</v>
+        <v>255000000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1613,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="AK7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1622,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="AN7">
-        <v>50000000</v>
+        <v>58200000</v>
       </c>
       <c r="AO7" t="s">
         <v>99</v>
@@ -1631,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="AQ7">
-        <v>252850000</v>
+        <v>292000000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="114">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:17:00.000Z</t>
+    <t>2024-08-31T05:43:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:40:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -889,103 +892,103 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1008,103 +1011,103 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1127,118 +1130,118 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1261,118 +1264,118 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1395,118 +1398,118 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1520,7 +1523,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1529,118 +1532,118 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
-        <v>85</v>
-      </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T7">
         <v>37000000</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W7">
         <v>111740000</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA7">
         <v>201460000</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE7">
         <v>313200000</v>
       </c>
       <c r="AF7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH7">
         <v>255000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7">
         <v>41</v>
       </c>
       <c r="AL7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7">
         <v>58200000</v>
       </c>
       <c r="AO7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ7">
         <v>292000000</v>
       </c>
       <c r="AR7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1663,118 +1666,118 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="s">
-        <v>85</v>
-      </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1797,103 +1800,103 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1916,103 +1919,103 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
         <v>86</v>
       </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2035,103 +2038,103 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
         <v>86</v>
       </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2154,118 +2157,118 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
         <v>86</v>
       </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2288,118 +2291,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-31T05:43:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:40:00.000Z</t>
+    <t>2024-08-31T15:46:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-11-5fa8d413eeca4005b6344fd2f907d522</t>
@@ -892,103 +889,103 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
       <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
       <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
         <v>89</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>93</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" t="s">
         <v>94</v>
       </c>
-      <c r="V2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s">
         <v>99</v>
       </c>
-      <c r="AM2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" t="s">
         <v>101</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1011,103 +1008,103 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
-        <v>87</v>
-      </c>
       <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
       <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
         <v>89</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>93</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" t="s">
         <v>94</v>
       </c>
-      <c r="V3" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" t="s">
         <v>98</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" t="s">
         <v>99</v>
       </c>
-      <c r="AM3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" t="s">
         <v>100</v>
       </c>
-      <c r="AP3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>101</v>
-      </c>
       <c r="AS3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1130,118 +1127,118 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
         <v>86</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>88</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
       <c r="R4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T4">
         <v>82800000</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W4">
         <v>88529000</v>
       </c>
       <c r="X4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA4">
         <v>197821000</v>
       </c>
       <c r="AB4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE4">
         <v>286350000</v>
       </c>
       <c r="AF4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH4">
         <v>250850000</v>
       </c>
       <c r="AI4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK4">
         <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN4">
         <v>35500000</v>
       </c>
       <c r="AO4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ4">
         <v>333650000</v>
       </c>
       <c r="AR4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1264,118 +1261,118 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>89</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T5">
         <v>65500000</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W5">
         <v>8933000</v>
       </c>
       <c r="X5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA5">
         <v>222767000</v>
       </c>
       <c r="AB5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE5">
         <v>231700000</v>
       </c>
       <c r="AF5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH5">
         <v>186500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK5">
         <v>20</v>
       </c>
       <c r="AL5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN5">
         <v>45200000</v>
       </c>
       <c r="AO5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ5">
         <v>252000000</v>
       </c>
       <c r="AR5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1398,118 +1395,118 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T6">
         <v>26000000</v>
       </c>
       <c r="U6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W6">
         <v>92126000</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA6">
         <v>165774000</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE6">
         <v>257900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH6">
         <v>242900000</v>
       </c>
       <c r="AI6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK6">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ6">
         <v>268900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1523,7 +1520,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1532,118 +1529,118 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" t="s">
-        <v>91</v>
-      </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7">
+        <v>49000000</v>
+      </c>
+      <c r="U7" t="s">
         <v>93</v>
       </c>
-      <c r="T7">
-        <v>37000000</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7">
+        <v>113740000</v>
+      </c>
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="V7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7">
-        <v>111740000</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7">
+        <v>207960000</v>
+      </c>
+      <c r="AB7" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA7">
-        <v>201460000</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7">
+        <v>321700000</v>
+      </c>
+      <c r="AF7" t="s">
         <v>96</v>
       </c>
-      <c r="AC7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7">
-        <v>313200000</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7">
+        <v>263500000</v>
+      </c>
+      <c r="AI7" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH7">
-        <v>255000000</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK7">
+        <v>43</v>
+      </c>
+      <c r="AL7" t="s">
         <v>98</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>99</v>
-      </c>
       <c r="AM7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN7">
         <v>58200000</v>
       </c>
       <c r="AO7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ7">
+        <v>312500000</v>
+      </c>
+      <c r="AR7" t="s">
         <v>100</v>
       </c>
-      <c r="AP7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ7">
-        <v>292000000</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>101</v>
-      </c>
       <c r="AS7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1666,118 +1663,118 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
         <v>87</v>
       </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>88</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
-        <v>91</v>
-      </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8">
         <v>35500000</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W8">
         <v>164473000</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA8">
         <v>487327000</v>
       </c>
       <c r="AB8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE8">
         <v>651800000</v>
       </c>
       <c r="AF8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH8">
         <v>582600000</v>
       </c>
       <c r="AI8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK8">
         <v>58</v>
       </c>
       <c r="AL8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN8">
         <v>69200000</v>
       </c>
       <c r="AO8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ8">
         <v>618100000</v>
       </c>
       <c r="AR8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1800,103 +1797,103 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
         <v>86</v>
       </c>
-      <c r="L9" t="s">
-        <v>87</v>
-      </c>
       <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
         <v>86</v>
       </c>
-      <c r="N9" t="s">
-        <v>87</v>
-      </c>
       <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
         <v>89</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>93</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
         <v>94</v>
       </c>
-      <c r="V9" t="s">
-        <v>93</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI9" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL9" t="s">
         <v>98</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO9" t="s">
         <v>99</v>
       </c>
-      <c r="AM9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR9" t="s">
         <v>100</v>
       </c>
-      <c r="AP9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>101</v>
-      </c>
       <c r="AS9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1919,103 +1916,103 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
         <v>86</v>
       </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
       <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
         <v>86</v>
       </c>
-      <c r="N10" t="s">
-        <v>87</v>
-      </c>
       <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
         <v>89</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" t="s">
-        <v>91</v>
-      </c>
       <c r="R10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>93</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" t="s">
         <v>94</v>
       </c>
-      <c r="V10" t="s">
-        <v>93</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>95</v>
       </c>
-      <c r="Y10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>96</v>
       </c>
-      <c r="AC10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" t="s">
         <v>97</v>
       </c>
-      <c r="AG10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL10" t="s">
         <v>98</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO10" t="s">
         <v>99</v>
       </c>
-      <c r="AM10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR10" t="s">
         <v>100</v>
       </c>
-      <c r="AP10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>101</v>
-      </c>
       <c r="AS10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2038,103 +2035,103 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
         <v>86</v>
       </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
       <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
         <v>86</v>
       </c>
-      <c r="N11" t="s">
-        <v>87</v>
-      </c>
       <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
       <c r="R11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>93</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" t="s">
         <v>94</v>
       </c>
-      <c r="V11" t="s">
-        <v>93</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>95</v>
       </c>
-      <c r="Y11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI11" t="s">
         <v>97</v>
       </c>
-      <c r="AG11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" t="s">
         <v>98</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO11" t="s">
         <v>99</v>
       </c>
-      <c r="AM11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR11" t="s">
         <v>100</v>
       </c>
-      <c r="AP11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>101</v>
-      </c>
       <c r="AS11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2157,118 +2154,118 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
         <v>86</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
         <v>87</v>
       </c>
-      <c r="M12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" t="s">
-        <v>91</v>
-      </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T12">
         <v>130500000</v>
       </c>
       <c r="U12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>90946000</v>
       </c>
       <c r="X12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA12">
         <v>145954000</v>
       </c>
       <c r="AB12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE12">
         <v>236900000</v>
       </c>
       <c r="AF12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH12">
         <v>217900000</v>
       </c>
       <c r="AI12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK12">
         <v>23</v>
       </c>
       <c r="AL12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN12">
         <v>19000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ12">
         <v>348400000</v>
       </c>
       <c r="AR12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2291,118 +2288,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
         <v>85</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>86</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
         <v>87</v>
       </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>88</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" t="s">
-        <v>91</v>
-      </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T13">
         <v>35800000</v>
       </c>
       <c r="U13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>105486000</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA13">
         <v>216944000</v>
       </c>
       <c r="AB13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE13">
         <v>322430000</v>
       </c>
       <c r="AF13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH13">
         <v>269730000</v>
       </c>
       <c r="AI13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK13">
         <v>47</v>
       </c>
       <c r="AL13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN13">
         <v>52700000</v>
       </c>
       <c r="AO13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ13">
         <v>305530000</v>
       </c>
       <c r="AR13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
